--- a/templates/template_orcamento.xlsx
+++ b/templates/template_orcamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3G\Desktop\orcamento_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A18EDED-C5A7-4A70-BC37-BF2243991C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3156268-6D1D-45B5-A894-EEFF4B0584A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -228,7 +229,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +570,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>

--- a/templates/template_orcamento.xlsx
+++ b/templates/template_orcamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3G\Desktop\orcamento_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3156268-6D1D-45B5-A894-EEFF4B0584A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE82967-66DA-4CC6-B8FD-B2706AABCD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,34 +71,33 @@
     <t>Validade da proposta: 5 DIAS</t>
   </si>
   <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
-    <t>Condições Comercial</t>
-  </si>
-  <si>
     <t>TOTAL:</t>
   </si>
   <si>
-    <t>Vendedor:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data </t>
-  </si>
-  <si>
     <t>Entrega a deve ser combinada com o vendedor.</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>CLIENTE:</t>
+  </si>
+  <si>
+    <t>PAGAMENTO:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSULTOR: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,22 +115,37 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +158,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,22 +195,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -195,45 +206,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -253,16 +276,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200027</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1249409</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1294783</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>217321</xdr:rowOff>
+      <xdr:rowOff>120711</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -291,8 +314,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353050" y="9525"/>
-          <a:ext cx="2030459" cy="1465096"/>
+          <a:off x="7810502" y="314325"/>
+          <a:ext cx="1094756" cy="930336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -567,162 +590,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="10">
+        <f>PRODUCT(E8,D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="13">
-        <f>PRODUCT(C8,B8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="15"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
